--- a/DGRA/DGRA_V1/ImportedFile/Wind_DGR_Automation.xlsx
+++ b/DGRA/DGRA_V1/ImportedFile/Wind_DGR_Automation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Uploading_File_Generation" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -773,9 +774,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -797,6 +795,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,23 +1083,23 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="42" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="41" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="34" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1110,7 +1111,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1121,8 +1122,8 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="41">
-        <v>44897</v>
+      <c r="A2" s="40">
+        <v>44900</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>128</v>
@@ -1144,8 +1145,8 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="41">
-        <v>44897</v>
+      <c r="A3" s="40">
+        <v>44900</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>129</v>
@@ -1165,13 +1166,11 @@
       <c r="G3" s="26">
         <v>23.8</v>
       </c>
-      <c r="K3" s="36">
-        <v>0</v>
-      </c>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="41">
-        <v>44897</v>
+      <c r="A4" s="40">
+        <v>44900</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>130</v>
@@ -1193,8 +1192,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="41">
-        <v>44897</v>
+      <c r="A5" s="40">
+        <v>44900</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>131</v>
@@ -1216,8 +1215,8 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="41">
-        <v>44897</v>
+      <c r="A6" s="40">
+        <v>44900</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>132</v>
@@ -1239,8 +1238,8 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="41">
-        <v>44897</v>
+      <c r="A7" s="40">
+        <v>44900</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>133</v>
@@ -1262,8 +1261,8 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="41">
-        <v>44897</v>
+      <c r="A8" s="40">
+        <v>44900</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>134</v>
@@ -1285,8 +1284,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="41">
-        <v>44897</v>
+      <c r="A9" s="40">
+        <v>44900</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>135</v>
@@ -1318,22 +1317,22 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" style="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="79.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1342,10 +1341,10 @@
       <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="24" t="s">
@@ -1356,8 +1355,8 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="33">
-        <v>44897</v>
+      <c r="A2" s="40">
+        <v>44903</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>130</v>
@@ -1365,10 +1364,10 @@
       <c r="C2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>0.52777777777777779</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="37">
         <v>0.53611111111111109</v>
       </c>
       <c r="F2" s="29" t="s">
@@ -1379,8 +1378,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="38.25">
-      <c r="A3" s="33">
-        <v>44897</v>
+      <c r="A3" s="40">
+        <v>44903</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>131</v>
@@ -1388,10 +1387,10 @@
       <c r="C3" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>0.5</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <v>0.5083333333333333</v>
       </c>
       <c r="F3" s="29" t="s">
@@ -1402,8 +1401,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5">
-      <c r="A4" s="33">
-        <v>44897</v>
+      <c r="A4" s="40">
+        <v>44901</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>128</v>
@@ -1411,10 +1410,10 @@
       <c r="C4" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>0.125</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F4" s="29" t="s">
@@ -1425,8 +1424,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="33">
-        <v>44897</v>
+      <c r="A5" s="40">
+        <v>44901</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>129</v>
@@ -1434,10 +1433,10 @@
       <c r="C5" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>0.125</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F5" s="29" t="s">
@@ -1448,8 +1447,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="38.25">
-      <c r="A6" s="33">
-        <v>44897</v>
+      <c r="A6" s="40">
+        <v>44901</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>130</v>
@@ -1457,10 +1456,10 @@
       <c r="C6" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>0.125</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F6" s="29" t="s">
@@ -1471,8 +1470,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="25.5">
-      <c r="A7" s="33">
-        <v>44897</v>
+      <c r="A7" s="40">
+        <v>44901</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>131</v>
@@ -1480,10 +1479,10 @@
       <c r="C7" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>0.125</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F7" s="29" t="s">
@@ -1494,8 +1493,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="33">
-        <v>44897</v>
+      <c r="A8" s="40">
+        <v>44901</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>128</v>
@@ -1503,10 +1502,10 @@
       <c r="C8" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>0.125</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F8" s="29" t="s">
@@ -1517,8 +1516,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="38.25">
-      <c r="A9" s="33">
-        <v>44897</v>
+      <c r="A9" s="40">
+        <v>44901</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>129</v>
@@ -1526,10 +1525,10 @@
       <c r="C9" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>0.125</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F9" s="29" t="s">
@@ -1540,8 +1539,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="25.5">
-      <c r="A10" s="33">
-        <v>44897</v>
+      <c r="A10" s="40">
+        <v>44901</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>130</v>
@@ -1549,10 +1548,10 @@
       <c r="C10" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>0.125</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F10" s="29" t="s">
@@ -1563,8 +1562,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="33">
-        <v>44897</v>
+      <c r="A11" s="40">
+        <v>44901</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>131</v>
@@ -1572,10 +1571,10 @@
       <c r="C11" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>0.125</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F11" s="29" t="s">
@@ -1586,8 +1585,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="38.25">
-      <c r="A12" s="33">
-        <v>44897</v>
+      <c r="A12" s="40">
+        <v>44900</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>128</v>
@@ -1595,10 +1594,10 @@
       <c r="C12" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>0.125</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F12" s="29" t="s">
@@ -1609,8 +1608,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5">
-      <c r="A13" s="33">
-        <v>44897</v>
+      <c r="A13" s="40">
+        <v>44900</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>129</v>
@@ -1618,10 +1617,10 @@
       <c r="C13" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>0.125</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F13" s="29" t="s">
@@ -1632,8 +1631,8 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="33">
-        <v>44897</v>
+      <c r="A14" s="40">
+        <v>44900</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>130</v>
@@ -1641,10 +1640,10 @@
       <c r="C14" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>0.125</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F14" s="29" t="s">
@@ -1655,8 +1654,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="38.25">
-      <c r="A15" s="33">
-        <v>44897</v>
+      <c r="A15" s="40">
+        <v>44900</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>131</v>
@@ -1664,10 +1663,10 @@
       <c r="C15" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>0.125</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F15" s="29" t="s">
@@ -1678,8 +1677,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5">
-      <c r="A16" s="33">
-        <v>44897</v>
+      <c r="A16" s="40">
+        <v>44900</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>128</v>
@@ -1687,10 +1686,10 @@
       <c r="C16" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>0.125</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F16" s="29" t="s">
@@ -1701,8 +1700,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="33">
-        <v>44897</v>
+      <c r="A17" s="40">
+        <v>44900</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>129</v>
@@ -1710,10 +1709,10 @@
       <c r="C17" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>0.125</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F17" s="29" t="s">
@@ -1724,8 +1723,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="38.25">
-      <c r="A18" s="33">
-        <v>44897</v>
+      <c r="A18" s="40">
+        <v>44900</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>130</v>
@@ -1733,10 +1732,10 @@
       <c r="C18" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>0.125</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F18" s="29" t="s">
@@ -1747,8 +1746,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.5">
-      <c r="A19" s="33">
-        <v>44897</v>
+      <c r="A19" s="40">
+        <v>44900</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>131</v>
@@ -1756,10 +1755,10 @@
       <c r="C19" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>0.125</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F19" s="29" t="s">
@@ -1770,8 +1769,8 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="33">
-        <v>44897</v>
+      <c r="A20" s="40">
+        <v>44900</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>128</v>
@@ -1779,10 +1778,10 @@
       <c r="C20" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>0.125</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F20" s="29" t="s">
@@ -1793,8 +1792,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="38.25">
-      <c r="A21" s="33">
-        <v>44897</v>
+      <c r="A21" s="40">
+        <v>44900</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>129</v>
@@ -1802,10 +1801,10 @@
       <c r="C21" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>0.125</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F21" s="29" t="s">
@@ -1816,8 +1815,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25.5">
-      <c r="A22" s="33">
-        <v>44897</v>
+      <c r="A22" s="40">
+        <v>44900</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>129</v>
@@ -1825,10 +1824,10 @@
       <c r="C22" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="37">
         <v>0.125</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="37">
         <v>0.13333333333333333</v>
       </c>
       <c r="F22" s="29" t="s">
